--- a/Experiments.xlsx
+++ b/Experiments.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/john.bumgardner/Documents/Python/GoBackNARQ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2208FC-C79D-F348-A30A-EBB628DA15D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440CEED8-6B52-EC45-ADCC-82E4847761C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{DDA65DBD-A275-9F43-B4DA-34CFEEC6C974}"/>
+    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{DDA65DBD-A275-9F43-B4DA-34CFEEC6C974}"/>
   </bookViews>
   <sheets>
     <sheet name="Effect of Loss Probability p" sheetId="1" r:id="rId1"/>
     <sheet name="Effect of Window Size" sheetId="2" r:id="rId2"/>
     <sheet name="Effect of MSS" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -282,34 +282,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.427007055282588</c:v>
+                  <c:v>14.273423385620083</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.937312889099116</c:v>
+                  <c:v>16.94537734985348</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9161159992217973</c:v>
+                  <c:v>17.115956354141183</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9826648712158161</c:v>
+                  <c:v>17.90619082450862</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.1340066432952813</c:v>
+                  <c:v>19.866183614730783</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.5377578258514362</c:v>
+                  <c:v>19.679971981048521</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.5844357967376661</c:v>
+                  <c:v>20.94546208381648</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.7275839328765814</c:v>
+                  <c:v>21.793642997741664</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.8210997104644724</c:v>
+                  <c:v>22.626579475402799</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.7620768547058061</c:v>
+                  <c:v>23.295437049865662</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -543,11 +543,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Delay</a:t>
+              <a:t>Time</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> of File Transfer of Window Size on Log scale</a:t>
+              <a:t> to send file as function of window size</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -626,10 +626,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Effect of Window Size'!$B$14:$K$14</c:f>
+              <c:f>'Effect of Window Size'!$B$14:$L$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -637,67 +637,73 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Effect of Window Size'!$B$15:$K$15</c:f>
+              <c:f>'Effect of Window Size'!$B$15:$L$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>20.3868382453918</c:v>
+                  <c:v>8.0532953739166206</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.518889141082701</c:v>
+                  <c:v>7.2462270259857124</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.5661160945892307</c:v>
+                  <c:v>20.132035779952965</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.149518728256162</c:v>
+                  <c:v>13.325641775131198</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>70.209278106689396</c:v>
+                  <c:v>11.41093730926508</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>141.10305809974642</c:v>
+                  <c:v>8.2103830337524393</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>277.09236989021264</c:v>
+                  <c:v>6.9284764766693083</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>520.86595535278286</c:v>
+                  <c:v>5.2547353267669603</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>840.21804628372161</c:v>
+                  <c:v>3.3533403873443546</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1171.4253198623601</c:v>
+                  <c:v>3.4208054065704303</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.4146238327026319</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -705,7 +711,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CF40-314F-B199-2E9A6C86E6AB}"/>
+              <c16:uniqueId val="{00000000-FF58-AD40-8827-30CBCA745DCE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -717,11 +723,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="432007632"/>
-        <c:axId val="431967776"/>
+        <c:axId val="31930336"/>
+        <c:axId val="31931968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="432007632"/>
+        <c:axId val="31930336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -778,12 +784,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="431967776"/>
+        <c:crossAx val="31931968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="431967776"/>
+        <c:axId val="31931968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -840,7 +846,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432007632"/>
+        <c:crossAx val="31930336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -911,6 +917,35 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Effect</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of Maximum Segment Size on File Transfer Tine</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1028,34 +1063,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>26.619033575057962</c:v>
+                  <c:v>73.699906015396067</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.5384660243987742</c:v>
+                  <c:v>37.9644131660461</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2467736244201637</c:v>
+                  <c:v>24.190791225433323</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7198540687560999</c:v>
+                  <c:v>18.184892511367742</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99532732963561765</c:v>
+                  <c:v>15.091666603088338</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.17746400833129855</c:v>
+                  <c:v>12.08646183013914</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.2573204040527323E-2</c:v>
+                  <c:v>9.9528130054473785</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.3097677230834917E-2</c:v>
+                  <c:v>9.145439291000347</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.1911306381225562E-2</c:v>
+                  <c:v>7.838696098327631</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.8428821563720664E-2</c:v>
+                  <c:v>7.5300614356994586</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2967,23 +3002,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{768100D7-6A6B-0C46-8BA2-4EF62C6FB6DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{284DC3D8-926F-7049-AA19-A73EF2712E80}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3344,8 +3379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF857A2-DDBC-694F-9951-C7FC5233F28D}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3407,34 +3442,34 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>2.6442589759826598</v>
+        <v>17.4438860416412</v>
       </c>
       <c r="C3" s="1">
-        <v>2.0850281715393</v>
+        <v>19.528111934661801</v>
       </c>
       <c r="D3" s="1">
-        <v>4.3721189498901296</v>
+        <v>15.6231191158294</v>
       </c>
       <c r="E3" s="1">
-        <v>4.4774768352508501</v>
+        <v>21.587110996246299</v>
       </c>
       <c r="F3" s="1">
-        <v>4.0244231224059996</v>
+        <v>19.522265195846501</v>
       </c>
       <c r="G3" s="1">
-        <v>4.1367208957672101</v>
+        <v>21.0321960449218</v>
       </c>
       <c r="H3" s="1">
-        <v>4.2488539218902499</v>
+        <v>21.815079212188699</v>
       </c>
       <c r="I3" s="1">
-        <v>4.6359508037567103</v>
+        <v>20.6542630195617</v>
       </c>
       <c r="J3" s="1">
-        <v>4.6086332798004097</v>
+        <v>22.901692152023301</v>
       </c>
       <c r="K3" s="1">
-        <v>4.9698159694671604</v>
+        <v>28.053505897521902</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -3442,34 +3477,34 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>1.36628913879394</v>
+        <v>16.759357929229701</v>
       </c>
       <c r="C4" s="1">
-        <v>2.3199927806854199</v>
+        <v>17.378235340118401</v>
       </c>
       <c r="D4" s="1">
-        <v>2.73082399368286</v>
+        <v>16.789155960083001</v>
       </c>
       <c r="E4" s="1">
-        <v>4.96177005767822</v>
+        <v>18.926328182220399</v>
       </c>
       <c r="F4" s="1">
-        <v>4.1152567863464302</v>
+        <v>20.5600409507751</v>
       </c>
       <c r="G4" s="1">
-        <v>4.6635141372680602</v>
+        <v>21.507265090942301</v>
       </c>
       <c r="H4" s="1">
-        <v>4.7857978343963596</v>
+        <v>20.098999261856001</v>
       </c>
       <c r="I4" s="1">
-        <v>4.9617788791656396</v>
+        <v>21.8662559986114</v>
       </c>
       <c r="J4" s="1">
-        <v>4.87709307670593</v>
+        <v>19.5315759181976</v>
       </c>
       <c r="K4" s="1">
-        <v>4.6053161621093697</v>
+        <v>20.845493078231801</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -3477,34 +3512,34 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>2.2073101997375399</v>
+        <v>6.9515640735626203</v>
       </c>
       <c r="C5" s="1">
-        <v>1.91542077064514</v>
+        <v>18.346174240112301</v>
       </c>
       <c r="D5" s="1">
-        <v>4.06176304817199</v>
+        <v>19.197070837020799</v>
       </c>
       <c r="E5" s="1">
-        <v>4.3863339424133301</v>
+        <v>17.128772258758499</v>
       </c>
       <c r="F5" s="1">
-        <v>3.1561422348022399</v>
+        <v>19.152935981750399</v>
       </c>
       <c r="G5" s="1">
-        <v>4.5518009662628103</v>
+        <v>19.716581821441601</v>
       </c>
       <c r="H5" s="1">
-        <v>4.1186339855194003</v>
+        <v>22.063781976699801</v>
       </c>
       <c r="I5" s="1">
-        <v>4.9053897857665998</v>
+        <v>23.188014984130799</v>
       </c>
       <c r="J5" s="1">
-        <v>4.7696299552917401</v>
+        <v>19.699819803237901</v>
       </c>
       <c r="K5" s="1">
-        <v>4.5894460678100497</v>
+        <v>23.853325128555198</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -3512,34 +3547,34 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>4.1250100135803196</v>
+        <v>13.663773775100699</v>
       </c>
       <c r="C6" s="1">
-        <v>4.1186368465423504</v>
+        <v>18.07888007164</v>
       </c>
       <c r="D6" s="1">
-        <v>2.4717869758605899</v>
+        <v>15.5177609920501</v>
       </c>
       <c r="E6" s="1">
-        <v>4.4039843082427899</v>
+        <v>14.594077825546201</v>
       </c>
       <c r="F6" s="1">
-        <v>4.21709704399108</v>
+        <v>20.572829961776701</v>
       </c>
       <c r="G6" s="1">
-        <v>4.1112802028655997</v>
+        <v>17.094269990920999</v>
       </c>
       <c r="H6" s="1">
-        <v>4.9744470119476301</v>
+        <v>20.852014064788801</v>
       </c>
       <c r="I6" s="1">
-        <v>4.8015763759613002</v>
+        <v>21.9401967525482</v>
       </c>
       <c r="J6" s="1">
-        <v>5.2817850112915004</v>
+        <v>29.8177247047424</v>
       </c>
       <c r="K6" s="1">
-        <v>4.7350399494171098</v>
+        <v>23.678377151489201</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -3547,34 +3582,34 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>1.7921669483184799</v>
+        <v>16.548535108566199</v>
       </c>
       <c r="C7" s="1">
-        <v>4.2474858760833696</v>
+        <v>11.3954851627349</v>
       </c>
       <c r="D7" s="1">
-        <v>0.94408702850341797</v>
+        <v>18.452674865722599</v>
       </c>
       <c r="E7" s="1">
-        <v>1.68375921249389</v>
+        <v>17.2946648597717</v>
       </c>
       <c r="F7" s="1">
-        <v>5.1571140289306596</v>
+        <v>19.522845983505199</v>
       </c>
       <c r="G7" s="1">
-        <v>5.2254729270934996</v>
+        <v>19.049546957015899</v>
       </c>
       <c r="H7" s="1">
-        <v>4.7944462299346897</v>
+        <v>19.897435903549098</v>
       </c>
       <c r="I7" s="1">
-        <v>4.3332238197326598</v>
+        <v>21.319484233856201</v>
       </c>
       <c r="J7" s="1">
-        <v>4.5683572292327801</v>
+        <v>21.182084798812799</v>
       </c>
       <c r="K7" s="1">
-        <v>4.91076612472534</v>
+        <v>20.046483993530199</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -3583,43 +3618,43 @@
       </c>
       <c r="B8">
         <f>AVERAGE(B3:B7)</f>
-        <v>2.427007055282588</v>
+        <v>14.273423385620083</v>
       </c>
       <c r="C8">
         <f>AVERAGE(C3:C7)</f>
-        <v>2.937312889099116</v>
+        <v>16.94537734985348</v>
       </c>
       <c r="D8">
         <f>AVERAGE(D3:D7)</f>
-        <v>2.9161159992217973</v>
+        <v>17.115956354141183</v>
       </c>
       <c r="E8">
         <f t="shared" ref="E8:K8" si="1">AVERAGE(E3:E7)</f>
-        <v>3.9826648712158161</v>
+        <v>17.90619082450862</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>4.1340066432952813</v>
+        <v>19.866183614730783</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>4.5377578258514362</v>
+        <v>19.679971981048521</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>4.5844357967376661</v>
+        <v>20.94546208381648</v>
       </c>
       <c r="I8">
         <f t="shared" si="1"/>
-        <v>4.7275839328765814</v>
+        <v>21.793642997741664</v>
       </c>
       <c r="J8">
         <f t="shared" si="1"/>
-        <v>4.8210997104644724</v>
+        <v>22.626579475402799</v>
       </c>
       <c r="K8">
         <f t="shared" si="1"/>
-        <v>4.7620768547058061</v>
+        <v>23.295437049865662</v>
       </c>
     </row>
   </sheetData>
@@ -3630,420 +3665,455 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7570D83-6760-8A46-8061-50E4C09F3339}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K15"/>
+      <selection activeCell="B14" sqref="B14:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
         <v>2</v>
       </c>
-      <c r="C1">
-        <f>B1^2</f>
+      <c r="D1">
+        <f>C1^2</f>
         <v>4</v>
       </c>
-      <c r="D1">
-        <f>C1*2</f>
+      <c r="E1">
+        <f>D1*2</f>
         <v>8</v>
       </c>
-      <c r="E1">
-        <f t="shared" ref="E1:K1" si="0">D1*2</f>
+      <c r="F1">
+        <f t="shared" ref="F1:L1" si="0">E1*2</f>
         <v>16</v>
       </c>
-      <c r="F1">
+      <c r="G1">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="G1">
+      <c r="H1">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="H1">
+      <c r="I1">
         <f t="shared" si="0"/>
         <v>128</v>
       </c>
-      <c r="I1">
+      <c r="J1">
         <f t="shared" si="0"/>
         <v>256</v>
       </c>
-      <c r="J1">
-        <f>I1*2</f>
+      <c r="K1">
+        <f>J1*2</f>
         <v>512</v>
       </c>
-      <c r="K1">
+      <c r="L1">
         <f t="shared" si="0"/>
         <v>1024</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>19.5884511470794</v>
+        <v>8.2463948726653999</v>
       </c>
       <c r="C3" s="1">
-        <v>15.6515479087829</v>
+        <v>6.2000632286071697</v>
       </c>
       <c r="D3" s="1">
-        <v>7.4424328804016104</v>
+        <v>21.017128944396902</v>
       </c>
       <c r="E3" s="1">
-        <v>33.768539905548003</v>
+        <v>10.150407075881899</v>
       </c>
       <c r="F3" s="1">
-        <v>69.666428327560396</v>
+        <v>11.1172759532928</v>
       </c>
       <c r="G3" s="1">
-        <v>140.61837577819799</v>
+        <v>8.8206970691680908</v>
       </c>
       <c r="H3" s="1">
-        <v>275.36531305313099</v>
+        <v>6.3828749656677202</v>
       </c>
       <c r="I3" s="1">
-        <v>543.97009086608796</v>
+        <v>5.7518777847290004</v>
       </c>
       <c r="J3" s="1">
-        <v>817.54720211028996</v>
+        <v>3.3253400325775102</v>
       </c>
       <c r="K3" s="1">
-        <v>1228.45432400703</v>
+        <v>3.4783399105071999</v>
+      </c>
+      <c r="L3" s="1">
+        <v>3.49036192893981</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>21.352176904678299</v>
+        <v>7.4058499336242596</v>
       </c>
       <c r="C4" s="1">
-        <v>15.327872991561801</v>
+        <v>8.2203409671783394</v>
       </c>
       <c r="D4" s="1">
-        <v>7.7414000034332204</v>
+        <v>19.8782138824462</v>
       </c>
       <c r="E4" s="1">
-        <v>35.548805236816399</v>
+        <v>11.205687046051001</v>
       </c>
       <c r="F4" s="1">
-        <v>69.197014093399005</v>
+        <v>12.5949640274047</v>
       </c>
       <c r="G4" s="1">
-        <v>138.00199699401799</v>
+        <v>8.8588311672210693</v>
       </c>
       <c r="H4" s="1">
-        <v>273.39433813095002</v>
+        <v>5.74706602096557</v>
       </c>
       <c r="I4" s="1">
-        <v>553.19895982742298</v>
+        <v>5.5563967227935702</v>
       </c>
       <c r="J4" s="1">
-        <v>846.42747211456299</v>
+        <v>3.3933219909667902</v>
       </c>
       <c r="K4" s="1">
-        <v>1121.05800318717</v>
+        <v>3.5026650428771902</v>
+      </c>
+      <c r="L4" s="1">
+        <v>3.3055119514465301</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>20.681058168411202</v>
+        <v>8.2684490680694491</v>
       </c>
       <c r="C5" s="1">
-        <v>15.4484798908233</v>
+        <v>7.19706082344055</v>
       </c>
       <c r="D5" s="1">
-        <v>7.6786198616027797</v>
+        <v>21.169778108596802</v>
       </c>
       <c r="E5" s="1">
-        <v>34.3250248432159</v>
+        <v>8.9295358657836896</v>
       </c>
       <c r="F5" s="1">
-        <v>69.450203895568805</v>
+        <v>11.3116407394409</v>
       </c>
       <c r="G5" s="1">
-        <v>141.89454579353301</v>
+        <v>8.3329348564147896</v>
       </c>
       <c r="H5" s="1">
-        <v>266.62002801895102</v>
+        <v>7.0939531326293901</v>
       </c>
       <c r="I5" s="1">
-        <v>505.21318507194502</v>
+        <v>5.0982561111450098</v>
       </c>
       <c r="J5" s="1">
-        <v>829.24548697471596</v>
+        <v>3.3242700099945002</v>
       </c>
       <c r="K5" s="1">
-        <v>1141.5952429771401</v>
+        <v>3.3579678535461399</v>
+      </c>
+      <c r="L5" s="1">
+        <v>3.4681861400604199</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>19.920922040939299</v>
+        <v>7.6607148647308296</v>
       </c>
       <c r="C6" s="1">
-        <v>15.5382859706878</v>
+        <v>7.5577828884124703</v>
       </c>
       <c r="D6" s="1">
-        <v>7.3974099159240696</v>
+        <v>19.085432052612301</v>
       </c>
       <c r="E6" s="1">
-        <v>33.430321931838897</v>
+        <v>17.268540859222401</v>
       </c>
       <c r="F6" s="1">
-        <v>69.814962148666297</v>
+        <v>10.730497837066601</v>
       </c>
       <c r="G6" s="1">
-        <v>142.638084888458</v>
+        <v>9.2306671142578107</v>
       </c>
       <c r="H6" s="1">
-        <v>284.80684494972201</v>
+        <v>7.40842604637146</v>
       </c>
       <c r="I6" s="1">
-        <v>503.83849096298201</v>
+        <v>5.0370249748229901</v>
       </c>
       <c r="J6" s="1">
-        <v>852.88762617111195</v>
+        <v>3.3758337497711102</v>
       </c>
       <c r="K6" s="1">
-        <v>1180.65015101432</v>
+        <v>3.3105621337890598</v>
+      </c>
+      <c r="L6" s="1">
+        <v>3.4773490428924498</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>20.391582965850802</v>
+        <v>8.6850681304931605</v>
       </c>
       <c r="C7" s="1">
-        <v>15.6282589435577</v>
+        <v>7.0558872222900302</v>
       </c>
       <c r="D7" s="1">
-        <v>7.57071781158447</v>
+        <v>19.5096259117126</v>
       </c>
       <c r="E7" s="1">
-        <v>33.674901723861602</v>
+        <v>19.074038028716998</v>
       </c>
       <c r="F7" s="1">
-        <v>72.917782068252507</v>
+        <v>11.3003079891204</v>
       </c>
       <c r="G7" s="1">
-        <v>142.362287044525</v>
+        <v>5.8087849617004297</v>
       </c>
       <c r="H7" s="1">
-        <v>285.27532529830899</v>
+        <v>8.0100622177124006</v>
       </c>
       <c r="I7" s="1">
-        <v>498.109050035476</v>
+        <v>4.8301210403442303</v>
       </c>
       <c r="J7" s="1">
-        <v>854.98244404792695</v>
+        <v>3.3479361534118599</v>
       </c>
       <c r="K7" s="1">
-        <v>1185.3688781261401</v>
+        <v>3.4544920921325599</v>
+      </c>
+      <c r="L7" s="1">
+        <v>3.3317101001739502</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8">
         <f>AVERAGE(B3:B7)</f>
-        <v>20.3868382453918</v>
+        <v>8.0532953739166206</v>
       </c>
       <c r="C8">
         <f>AVERAGE(C3:C7)</f>
-        <v>15.518889141082701</v>
+        <v>7.2462270259857124</v>
       </c>
       <c r="D8">
-        <f t="shared" ref="D8:K8" si="1">AVERAGE(D3:D7)</f>
-        <v>7.5661160945892307</v>
+        <f>AVERAGE(D3:D7)</f>
+        <v>20.132035779952965</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
-        <v>34.149518728256162</v>
+        <f t="shared" ref="E8:L8" si="1">AVERAGE(E3:E7)</f>
+        <v>13.325641775131198</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>70.209278106689396</v>
+        <v>11.41093730926508</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>141.10305809974642</v>
+        <v>8.2103830337524393</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>277.09236989021264</v>
+        <v>6.9284764766693083</v>
       </c>
       <c r="I8">
         <f t="shared" si="1"/>
-        <v>520.86595535278286</v>
+        <v>5.2547353267669603</v>
       </c>
       <c r="J8">
         <f t="shared" si="1"/>
-        <v>840.21804628372161</v>
+        <v>3.3533403873443546</v>
       </c>
       <c r="K8">
         <f t="shared" si="1"/>
-        <v>1171.4253198623601</v>
+        <v>3.4208054065704303</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>3.4146238327026319</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9">
         <f>LOG(B1,2)</f>
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <f>LOG(C1,2)</f>
         <v>1</v>
       </c>
-      <c r="C9">
-        <f t="shared" ref="C9:K9" si="2">LOG(C1,2)</f>
+      <c r="D9">
+        <f t="shared" ref="D9:L9" si="2">LOG(D1,2)</f>
         <v>2</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>5</v>
       </c>
       <c r="B14">
-        <f>B9</f>
+        <f>B1</f>
         <v>1</v>
       </c>
       <c r="C14">
-        <f t="shared" ref="C14:K14" si="3">C9</f>
+        <f t="shared" ref="C14:L14" si="3">C1</f>
         <v>2</v>
       </c>
       <c r="D14">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E14">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F14">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G14">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="H14">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="I14">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="J14">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>256</v>
       </c>
       <c r="K14">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>512</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="3"/>
+        <v>1024</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>6</v>
       </c>
       <c r="B15">
         <f>B8</f>
-        <v>20.3868382453918</v>
+        <v>8.0532953739166206</v>
       </c>
       <c r="C15">
-        <f t="shared" ref="C15:K15" si="4">C8</f>
-        <v>15.518889141082701</v>
+        <f>C8</f>
+        <v>7.2462270259857124</v>
       </c>
       <c r="D15">
-        <f t="shared" si="4"/>
-        <v>7.5661160945892307</v>
+        <f>D8</f>
+        <v>20.132035779952965</v>
       </c>
       <c r="E15">
-        <f t="shared" si="4"/>
-        <v>34.149518728256162</v>
+        <f>E8</f>
+        <v>13.325641775131198</v>
       </c>
       <c r="F15">
-        <f t="shared" si="4"/>
-        <v>70.209278106689396</v>
+        <f>F8</f>
+        <v>11.41093730926508</v>
       </c>
       <c r="G15">
-        <f t="shared" si="4"/>
-        <v>141.10305809974642</v>
+        <f>G8</f>
+        <v>8.2103830337524393</v>
       </c>
       <c r="H15">
-        <f t="shared" si="4"/>
-        <v>277.09236989021264</v>
+        <f>H8</f>
+        <v>6.9284764766693083</v>
       </c>
       <c r="I15">
-        <f t="shared" si="4"/>
-        <v>520.86595535278286</v>
+        <f>I8</f>
+        <v>5.2547353267669603</v>
       </c>
       <c r="J15">
-        <f t="shared" si="4"/>
-        <v>840.21804628372161</v>
+        <f>J8</f>
+        <v>3.3533403873443546</v>
       </c>
       <c r="K15">
-        <f t="shared" si="4"/>
-        <v>1171.4253198623601</v>
+        <f>K8</f>
+        <v>3.4208054065704303</v>
+      </c>
+      <c r="L15">
+        <f>L8</f>
+        <v>3.4146238327026319</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -4052,7 +4122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C128B771-D54D-ED4C-9A9D-BCE8FA3A09A8}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
@@ -4112,34 +4182,34 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>26.455734014511101</v>
+        <v>71.548804044723497</v>
       </c>
       <c r="C3" s="1">
-        <v>9.7583200931549001</v>
+        <v>36.410917758941601</v>
       </c>
       <c r="D3" s="1">
-        <v>3.2687718868255602</v>
+        <v>23.333143234252901</v>
       </c>
       <c r="E3" s="1">
-        <v>0.68385362625122004</v>
+        <v>17.317109107971099</v>
       </c>
       <c r="F3" s="1">
-        <v>0.31347107887268</v>
+        <v>14.476436853408799</v>
       </c>
       <c r="G3" s="1">
-        <v>5.3225040435791002E-2</v>
+        <v>13.104486227035499</v>
       </c>
       <c r="H3" s="1">
-        <v>5.4587125778198201E-2</v>
+        <v>9.6317789554595894</v>
       </c>
       <c r="I3" s="1">
-        <v>4.9882173538208001E-2</v>
+        <v>9.4551081657409597</v>
       </c>
       <c r="J3" s="1">
-        <v>4.6807765960693297E-2</v>
+        <v>8.5857210159301705</v>
       </c>
       <c r="K3" s="1">
-        <v>4.8489332199096603E-2</v>
+        <v>7.6708381175994802</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -4147,34 +4217,34 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>26.6841721534729</v>
+        <v>73.643436908721895</v>
       </c>
       <c r="C4" s="1">
-        <v>11.1385149955749</v>
+        <v>38.549671888351398</v>
       </c>
       <c r="D4" s="1">
-        <v>3.56209397315979</v>
+        <v>24.461279153823799</v>
       </c>
       <c r="E4" s="1">
-        <v>2.5303938388824401</v>
+        <v>19.555392026901199</v>
       </c>
       <c r="F4" s="1">
-        <v>0.53844189643859797</v>
+        <v>15.7130019664764</v>
       </c>
       <c r="G4" s="1">
-        <v>5.5547952651977497E-2</v>
+        <v>12.8986279964447</v>
       </c>
       <c r="H4" s="1">
-        <v>5.3606033325195299E-2</v>
+        <v>10.0741672515869</v>
       </c>
       <c r="I4" s="1">
-        <v>5.3580045700073201E-2</v>
+        <v>10.920117139816201</v>
       </c>
       <c r="J4" s="1">
-        <v>5.4626941680908203E-2</v>
+        <v>7.2987580299377397</v>
       </c>
       <c r="K4" s="1">
-        <v>4.79068756103515E-2</v>
+        <v>6.80987501144409</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -4182,34 +4252,34 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>25.8300778865814</v>
+        <v>78.652462244033799</v>
       </c>
       <c r="C5" s="1">
-        <v>10.4518520832061</v>
+        <v>39.082142114639197</v>
       </c>
       <c r="D5" s="1">
-        <v>2.0127182006835902</v>
+        <v>22.387669086456299</v>
       </c>
       <c r="E5" s="1">
-        <v>1.8274579048156701</v>
+        <v>18.7342591285705</v>
       </c>
       <c r="F5" s="1">
-        <v>1.1748008728027299</v>
+        <v>15.223746061325</v>
       </c>
       <c r="G5" s="1">
-        <v>5.20451068878173E-2</v>
+        <v>11.128179073333699</v>
       </c>
       <c r="H5" s="1">
-        <v>5.3390026092529297E-2</v>
+        <v>11.2881188392639</v>
       </c>
       <c r="I5" s="1">
-        <v>5.7616233825683497E-2</v>
+        <v>8.5877881050109792</v>
       </c>
       <c r="J5" s="1">
-        <v>5.3153991699218701E-2</v>
+        <v>7.40474510192871</v>
       </c>
       <c r="K5" s="1">
-        <v>4.3259859085083001E-2</v>
+        <v>7.9799039363861004</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -4217,34 +4287,34 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>26.829211711883499</v>
+        <v>68.916972875594993</v>
       </c>
       <c r="C6" s="1">
-        <v>7.5543730258941597</v>
+        <v>38.6279969215393</v>
       </c>
       <c r="D6" s="1">
-        <v>5.1098859310150102</v>
+        <v>25.925662994384702</v>
       </c>
       <c r="E6" s="1">
-        <v>1.6708388328552199</v>
+        <v>17.5389530658721</v>
       </c>
       <c r="F6" s="1">
-        <v>1.2936439514160101</v>
+        <v>15.788364171981801</v>
       </c>
       <c r="G6" s="1">
-        <v>0.54076194763183505</v>
+        <v>12.3288149833679</v>
       </c>
       <c r="H6" s="1">
-        <v>5.0674915313720703E-2</v>
+        <v>9.3526148796081507</v>
       </c>
       <c r="I6" s="1">
-        <v>4.7843933105468701E-2</v>
+        <v>7.5406219959258998</v>
       </c>
       <c r="J6" s="1">
-        <v>5.1178932189941399E-2</v>
+        <v>8.3778822422027499</v>
       </c>
       <c r="K6" s="1">
-        <v>5.0338983535766602E-2</v>
+        <v>6.70332527160644</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -4252,34 +4322,34 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>27.2959721088409</v>
+        <v>75.737854003906193</v>
       </c>
       <c r="C7" s="1">
-        <v>8.7892699241638095</v>
+        <v>37.151337146758998</v>
       </c>
       <c r="D7" s="1">
-        <v>2.2803981304168701</v>
+        <v>24.846201658248901</v>
       </c>
       <c r="E7" s="1">
-        <v>1.8867261409759499</v>
+        <v>17.7787492275238</v>
       </c>
       <c r="F7" s="1">
-        <v>1.65627884864807</v>
+        <v>14.256783962249701</v>
       </c>
       <c r="G7" s="1">
-        <v>0.18573999404907199</v>
+        <v>10.9722008705139</v>
       </c>
       <c r="H7" s="1">
-        <v>5.0607919692993102E-2</v>
+        <v>9.4173851013183594</v>
       </c>
       <c r="I7" s="1">
-        <v>5.6565999984741197E-2</v>
+        <v>9.2235610485076904</v>
       </c>
       <c r="J7" s="1">
-        <v>5.3788900375366197E-2</v>
+        <v>7.5263741016387904</v>
       </c>
       <c r="K7" s="1">
-        <v>5.2149057388305602E-2</v>
+        <v>8.4863648414611799</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -4288,43 +4358,43 @@
       </c>
       <c r="B8">
         <f>AVERAGE(B3:B7)</f>
-        <v>26.619033575057962</v>
+        <v>73.699906015396067</v>
       </c>
       <c r="C8">
         <f>AVERAGE(C3:C7)</f>
-        <v>9.5384660243987742</v>
+        <v>37.9644131660461</v>
       </c>
       <c r="D8">
         <f t="shared" ref="D8:K8" si="1">AVERAGE(D3:D7)</f>
-        <v>3.2467736244201637</v>
+        <v>24.190791225433323</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>1.7198540687560999</v>
+        <v>18.184892511367742</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>0.99532732963561765</v>
+        <v>15.091666603088338</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>0.17746400833129855</v>
+        <v>12.08646183013914</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>5.2573204040527323E-2</v>
+        <v>9.9528130054473785</v>
       </c>
       <c r="I8">
         <f t="shared" si="1"/>
-        <v>5.3097677230834917E-2</v>
+        <v>9.145439291000347</v>
       </c>
       <c r="J8">
         <f t="shared" si="1"/>
-        <v>5.1911306381225562E-2</v>
+        <v>7.838696098327631</v>
       </c>
       <c r="K8">
         <f t="shared" si="1"/>
-        <v>4.8428821563720664E-2</v>
+        <v>7.5300614356994586</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -4378,47 +4448,48 @@
       </c>
       <c r="B15">
         <f>B8</f>
-        <v>26.619033575057962</v>
+        <v>73.699906015396067</v>
       </c>
       <c r="C15">
         <f t="shared" ref="C15:K15" si="3">C8</f>
-        <v>9.5384660243987742</v>
+        <v>37.9644131660461</v>
       </c>
       <c r="D15">
         <f t="shared" si="3"/>
-        <v>3.2467736244201637</v>
+        <v>24.190791225433323</v>
       </c>
       <c r="E15">
         <f t="shared" si="3"/>
-        <v>1.7198540687560999</v>
+        <v>18.184892511367742</v>
       </c>
       <c r="F15">
         <f t="shared" si="3"/>
-        <v>0.99532732963561765</v>
+        <v>15.091666603088338</v>
       </c>
       <c r="G15">
         <f t="shared" si="3"/>
-        <v>0.17746400833129855</v>
+        <v>12.08646183013914</v>
       </c>
       <c r="H15">
         <f t="shared" si="3"/>
-        <v>5.2573204040527323E-2</v>
+        <v>9.9528130054473785</v>
       </c>
       <c r="I15">
         <f t="shared" si="3"/>
-        <v>5.3097677230834917E-2</v>
+        <v>9.145439291000347</v>
       </c>
       <c r="J15">
         <f t="shared" si="3"/>
-        <v>5.1911306381225562E-2</v>
+        <v>7.838696098327631</v>
       </c>
       <c r="K15">
         <f t="shared" si="3"/>
-        <v>4.8428821563720664E-2</v>
+        <v>7.5300614356994586</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>